--- a/biology/Histoire de la zoologie et de la botanique/Robert_Kennicott/Robert_Kennicott.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Kennicott/Robert_Kennicott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Kennicott est un naturaliste américain, né le 13 novembre 1835 à La Nouvelle-Orléans et mort le 13 mai 1866 à Nulato en Alaska.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du docteur John Albet Kennicott et de Mary née Ransom. Il grandit à Chicago. À partir de 1853, il travaille avec Spencer Fullerton Baird (1823-1887) au National Museum of Natural History où il devient l’un des membres les plus actifs du Megatherium Club. Il étudie, en 1855, le sud de l’Illinois. Il participe, en 1856, à la création de l’Académie des sciences de Chicago dont il deviendra le conservateur vers 1863 puis, plus tard, le président. Il organise en 1857, le muséum d’histoire naturelle de la North-western University. De 1858 à 1859, Kennicott s’occupe du référencement et du catalogage des spécimens reçus de Californie par le National Museum of Natural History.
 En avril 1859, il part récolter des spécimens dans les forêts boréales du Canada et de la toundra arctique. Il revient à Washington à la fin de 1862 avec une immense collection.
